--- a/assets/disciplinas/LOM3089.xlsx
+++ b/assets/disciplinas/LOM3089.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t xml:space="preserve">LOB1019 -  Física II  (Requisito fraco)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOB1052 -  Cálculo III  (Requisito fraco)
 </t>
   </si>
 </sst>
@@ -502,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,14 +725,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/disciplinas/LOM3089.xlsx
+++ b/assets/disciplinas/LOM3089.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar noções de mecânica dos fluidos e reologia, mediante estudo dos meios fluidos quando estáticos ou em movimento. Capacitar o aluno a modelar e resolver problemas de interesse em mecânica dos fluidos e reologia, com escolha adequada de hipóteses e aplicação de ferramentas correspondentes de solução.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Fundamentos de mecânica dos fluidos. Revisão de estática dos fluidos. Formulação integral e diferencial das equações de transporte de massa, energia e quantidade de movimento. Análise dimensional e semelhança. Escoamento incompressível de fluidos ideais e viscosos, regime laminar e turbulento. Equação de Navier-Stokes. Teoria da camada limite. Escoamento de fluidos não newtonianos. Formulação tensorial: tensão e deformação. Viscosidade e reometria. Viscoelasticidade. Aplicações.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,15 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução: conceito de fluido; propriedades e conceito de contínuo; modelagem de processos de transferência; métodos de análise; dimensões e unidades.
-Revisão de estática de fluidos: equação básica da hidrostática, variação de pressão em um fluido estático; princípios de Stevin, de Pascal e de Arquimedes.
-Formulação integral das equações de transporte: teorema de transporte de Reynolds; aplicação para os princípios de conservação de massa, quantidade de movimento e energia; equação de Bernoulli.
-Formulação diferencial das equações de transporte: descrição do escoamento; forma diferencial: dos princípios de conservação de massa, quantidade de movimento e energia; formulação adimensional, análise dimensional e semelhança. Grupos adimensionais: número de Reynolds e número de Grashoff.
-Escoamento incompressível interno: equações de Euler; lei de Newton para a viscosidade, tensões de cisalhamento; equação de Navier-Stokes; regimes de escoamento: escoamento laminar e turbulento. Cálculo de perda de carga (distribuída e localizada), coeficiente de atrito. 
-Escoamento incompressível externo: introdução à camada limite; escoamento ao redor de corpos, força da arraste.
-Introdução a reologia. Definição e formulação tensorial de tensão e deformação. Tipos de deformação e escoamento de materiais. Equações fundamentais da reologia. Escoamento de fluidos newtonianos e não newtonianos. Viscosimetria e reometria. Reologia de sistemas dispersos. Colóides e emulsões. Soluções diluídas. Viscosimetria capilar. Aplicações.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,30 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de duas provas escritas P1 e P2 e por listas de exercícios e relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada pela média ponderada das provas escritas e pela média dos trabalhos TR da seguinte maneira: NF = (P1 + 2*P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BIRD,R. B.; STEWART, W. E.; LIGHTFOOT, E. N. Fenômenos de Transporte. LTC Editora, 2004.
-FOX, R. W., McDONALD, A. T. Introdução à Mecânica dos Fluidos. LTC Editora, 2001.
-SISSOM, L. E., PITTS, D. R. Fenômenos de Transporte. Ed. Guanabara, 1988.
-SCHRAMM, G. Reologia e Reometria. Editora Artliber, 2006.
-MANRICH, S.; PESSAN, L.A. Reologia: Conceitos Básicos, Editora UFSCar, 1987.
-MALKIN, A. Rheology Fundamentals. ChemTec Publishing, 1994.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -498,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3089.xlsx
+++ b/assets/disciplinas/LOM3089.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar noções de mecânica dos fluidos e reologia, mediante estudo dos meios fluidos quando estáticos ou em movimento. Capacitar o aluno a modelar e resolver problemas de interesse em mecânica dos fluidos e reologia, com escolha adequada de hipóteses e aplicação de ferramentas correspondentes de solução.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Fundamentos de mecânica dos fluidos. Revisão de estática dos fluidos. Formulação integral e diferencial das equações de transporte de massa, energia e quantidade de movimento. Análise dimensional e semelhança. Escoamento incompressível de fluidos ideais e viscosos, regime laminar e turbulento. Equação de Navier-Stokes. Teoria da camada limite. Escoamento de fluidos não newtonianos. Formulação tensorial: tensão e deformação. Viscosidade e reometria. Viscoelasticidade. Aplicações.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,15 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução: conceito de fluido; propriedades e conceito de contínuo; modelagem de processos de transferência; métodos de análise; dimensões e unidades.
+Revisão de estática de fluidos: equação básica da hidrostática, variação de pressão em um fluido estático; princípios de Stevin, de Pascal e de Arquimedes.
+Formulação integral das equações de transporte: teorema de transporte de Reynolds; aplicação para os princípios de conservação de massa, quantidade de movimento e energia; equação de Bernoulli.
+Formulação diferencial das equações de transporte: descrição do escoamento; forma diferencial: dos princípios de conservação de massa, quantidade de movimento e energia; formulação adimensional, análise dimensional e semelhança. Grupos adimensionais: número de Reynolds e número de Grashoff.
+Escoamento incompressível interno: equações de Euler; lei de Newton para a viscosidade, tensões de cisalhamento; equação de Navier-Stokes; regimes de escoamento: escoamento laminar e turbulento. Cálculo de perda de carga (distribuída e localizada), coeficiente de atrito. 
+Escoamento incompressível externo: introdução à camada limite; escoamento ao redor de corpos, força da arraste.
+Introdução a reologia. Definição e formulação tensorial de tensão e deformação. Tipos de deformação e escoamento de materiais. Equações fundamentais da reologia. Escoamento de fluidos newtonianos e não newtonianos. Viscosimetria e reometria. Reologia de sistemas dispersos. Colóides e emulsões. Soluções diluídas. Viscosimetria capilar. Aplicações.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +112,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de duas provas escritas P1 e P2 e por listas de exercícios e relatórios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de duas provas escritas P1 e P2 e por listas de exercícios e relatórios.</t>
+    <t>A Nota final (NF) será calculada pela média ponderada das provas escritas e pela média dos trabalhos TR da seguinte maneira: NF = (P1 + 2*P2 + TR)/4</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada pela média ponderada das provas escritas e pela média dos trabalhos TR da seguinte maneira: NF = (P1 + 2*P2 + TR)/4</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>BIRD,R. B.; STEWART, W. E.; LIGHTFOOT, E. N. Fenômenos de Transporte. LTC Editora, 2004.
+FOX, R. W., McDONALD, A. T. Introdução à Mecânica dos Fluidos. LTC Editora, 2001.
+SISSOM, L. E., PITTS, D. R. Fenômenos de Transporte. Ed. Guanabara, 1988.
+SCHRAMM, G. Reologia e Reometria. Editora Artliber, 2006.
+MANRICH, S.; PESSAN, L.A. Reologia: Conceitos Básicos, Editora UFSCar, 1987.
+MALKIN, A. Rheology Fundamentals. ChemTec Publishing, 1994.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +623,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
